--- a/biology/Zoologie/Cyphophthalmus_klisurae/Cyphophthalmus_klisurae.xlsx
+++ b/biology/Zoologie/Cyphophthalmus_klisurae/Cyphophthalmus_klisurae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyphophthalmus klisurae est une espèce d'opilions cyphophthalmes de la famille des Sironidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kosovo. Elle se rencontre à Peć dans une grotte des gorges Rugovska Klisura[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kosovo. Elle se rencontre à Peć dans une grotte des gorges Rugovska Klisura.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Karaman en 2008 mesure 2,20 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Karaman en 2008 mesure 2,20 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Siro gjorgjevici klisurae par Hadži en 1973. Elle suit son espèce dans le genre Cyphophthalmus en 2005[2]. Elle est élevée au rang d'espèce par Karaman en 2008[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Siro gjorgjevici klisurae par Hadži en 1973. Elle suit son espèce dans le genre Cyphophthalmus en 2005. Elle est élevée au rang d'espèce par Karaman en 2008.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les gorges Rugovska Klisura.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hadži, 1973 : « Novi taksoni suhih juzim (Opilionoidea) v Jugosulaviji. » Razprave Slovenska Akademija Znanosti in Umetnosti (SAZU) IV, vol. 16, no 1, p. 1-120.</t>
         </is>
